--- a/docs/T02_OB_TC_ver03.xlsx
+++ b/docs/T02_OB_TC_ver03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komdosh/Projects/University/officebooking/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A496B90F-4A00-924B-87D2-CD3CDED71BBC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A24982-B80D-3D42-A23E-9FC55D3CAF01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="J55" sqref="J55"/>

--- a/docs/T02_OB_TC_ver03.xlsx
+++ b/docs/T02_OB_TC_ver03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komdosh/Projects/University/officebooking/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A24982-B80D-3D42-A23E-9FC55D3CAF01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B3BD7F-2065-464B-8ED3-32F074BB11C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="210">
   <si>
     <t>#</t>
   </si>
@@ -1352,18 +1352,27 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,12 +1421,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1429,9 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1777,10 +1777,10 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomRight" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1796,15 +1796,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="36"/>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
@@ -1816,11 +1816,11 @@
       <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="37"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
@@ -1882,10 +1882,10 @@
       <c r="B4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1904,10 +1904,10 @@
       <c r="B5" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="49"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="27" t="s">
         <v>47</v>
       </c>
@@ -1925,7 +1925,9 @@
       <c r="K5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
@@ -1936,8 +1938,8 @@
       <c r="B6" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="27" t="s">
         <v>50</v>
       </c>
@@ -1955,7 +1957,9 @@
       <c r="K6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
@@ -1966,12 +1970,12 @@
       <c r="B7" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
       <c r="E7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="39" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="27"/>
@@ -1985,7 +1989,9 @@
       <c r="K7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
@@ -1996,12 +2002,12 @@
       <c r="B8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
       <c r="E8" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
@@ -2013,7 +2019,9 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
@@ -2024,8 +2032,8 @@
       <c r="B9" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="27" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2051,9 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
@@ -2054,8 +2064,8 @@
       <c r="B10" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="27" t="s">
         <v>56</v>
       </c>
@@ -2073,7 +2083,9 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
@@ -2084,8 +2096,8 @@
       <c r="B11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="27" t="s">
         <v>46</v>
       </c>
@@ -2103,7 +2115,9 @@
       <c r="K11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
@@ -2114,10 +2128,10 @@
       <c r="B12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="27" t="s">
         <v>87</v>
       </c>
@@ -2135,7 +2149,9 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
@@ -2146,10 +2162,10 @@
       <c r="B13" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -2189,7 +2205,9 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
@@ -2219,7 +2237,9 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
@@ -2249,7 +2269,9 @@
       <c r="K16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
@@ -2260,10 +2282,10 @@
       <c r="B17" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="38"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -2301,7 +2323,9 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
@@ -2331,7 +2355,9 @@
       <c r="K19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
@@ -2361,7 +2387,9 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
@@ -2393,7 +2421,9 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
@@ -2425,7 +2455,9 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
@@ -2457,7 +2489,9 @@
       <c r="K23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
@@ -2489,7 +2523,9 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
@@ -2500,10 +2536,10 @@
       <c r="B25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -2543,7 +2579,9 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
@@ -2575,7 +2613,9 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
@@ -2586,10 +2626,10 @@
       <c r="B28" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -2629,7 +2669,9 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
@@ -2661,7 +2703,9 @@
       <c r="K30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
@@ -2693,7 +2737,9 @@
       <c r="K31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
@@ -2725,7 +2771,9 @@
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
@@ -2757,7 +2805,9 @@
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
@@ -2789,7 +2839,9 @@
       <c r="K34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
     </row>
@@ -2821,7 +2873,9 @@
       <c r="K35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
@@ -2853,7 +2907,9 @@
       <c r="K36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
     </row>
@@ -2885,7 +2941,9 @@
       <c r="K37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
@@ -2917,7 +2975,9 @@
       <c r="K38" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="3"/>
+      <c r="L38" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
@@ -2949,7 +3009,9 @@
       <c r="K39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
     </row>
@@ -2981,7 +3043,9 @@
       <c r="K40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
     </row>
@@ -3013,7 +3077,9 @@
       <c r="K41" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L41" s="3"/>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
@@ -3024,10 +3090,10 @@
       <c r="B42" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -3067,7 +3133,9 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
     </row>
@@ -3099,7 +3167,9 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
@@ -3131,7 +3201,9 @@
       <c r="K45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
     </row>
@@ -3163,7 +3235,9 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
     </row>
@@ -3195,7 +3269,9 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
     </row>
@@ -3227,7 +3303,9 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
     </row>
@@ -3259,7 +3337,9 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
     </row>
@@ -3270,10 +3350,10 @@
       <c r="B50" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -3311,7 +3391,9 @@
       <c r="K51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L51" s="3"/>
+      <c r="L51" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
     </row>
@@ -3341,7 +3423,9 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
     </row>
@@ -3371,7 +3455,9 @@
       <c r="K53" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
     </row>
@@ -3390,23 +3476,23 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="62">
+      <c r="J54" s="36">
         <f>COUNTIF($A$3:I53, "*.*")-1</f>
         <v>43</v>
       </c>
-      <c r="K54" s="62">
+      <c r="K54" s="36">
         <f>COUNTIF($A$3:J53, "*.*")-1</f>
         <v>43</v>
       </c>
-      <c r="L54" s="62">
+      <c r="L54" s="36">
         <f>COUNTIF($A$3:K53, "*.*")-1</f>
         <v>43</v>
       </c>
-      <c r="M54" s="62">
+      <c r="M54" s="36">
         <f>COUNTIF($A$3:L53, "*.*")-1</f>
         <v>43</v>
       </c>
-      <c r="N54" s="62">
+      <c r="N54" s="36">
         <f>COUNTIF($A$3:M53, "*.*")-1</f>
         <v>43</v>
       </c>
@@ -3433,7 +3519,7 @@
       </c>
       <c r="L55" s="12">
         <f t="shared" ref="L55:N55" si="0">COUNTIF(L5:L53,"failed")+COUNTIF(L5:L53,"passed")</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M55" s="12">
         <f t="shared" si="0"/>
@@ -3466,7 +3552,7 @@
       </c>
       <c r="L56" s="12">
         <f ca="1">COUNTIF(L$4:INDIRECT("R[-1]C",0), "*passed*")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M56" s="12">
         <f ca="1">COUNTIF(M$4:INDIRECT("R[-1]C",0), "*passed*")</f>
@@ -3499,7 +3585,7 @@
       </c>
       <c r="L57" s="12">
         <f ca="1">COUNTIF(L$4:INDIRECT("R[-1]C",0), "*failed*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M57" s="12">
         <f ca="1">COUNTIF(M$4:INDIRECT("R[-1]C",0), "*failed*")</f>
@@ -3512,12 +3598,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C1:E2"/>
@@ -3525,6 +3605,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
@@ -3637,171 +3723,171 @@
       <c r="A13" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="10">
